--- a/data/testdata.xlsx
+++ b/data/testdata.xlsx
@@ -86,7 +86,7 @@
     <t>无效数据。期待为字典类型</t>
   </si>
   <si>
-    <t>n</t>
+    <t>y</t>
   </si>
   <si>
     <t>login_2</t>
@@ -159,9 +159,6 @@
   </si>
   <si>
     <t>id': 1, 'username': 'python', 'mobile': '17701397029', 'email': '952673638@qq.com'</t>
-  </si>
-  <si>
-    <t>y</t>
   </si>
   <si>
     <t>{"Authorization": "JWT ${token}$"}</t>
@@ -226,6 +223,9 @@
   </si>
   <si>
     <t>order_id</t>
+  </si>
+  <si>
+    <t>n</t>
   </si>
   <si>
     <t>sheet名称  feature 一级标签</t>
@@ -266,10 +266,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -310,10 +310,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
       <name val="DengXian"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -324,8 +341,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="DengXian Light"/>
+      <charset val="134"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -354,7 +386,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -370,49 +409,10 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="DengXian Light"/>
-      <charset val="134"/>
-      <scheme val="major"/>
     </font>
     <font>
       <b/>
@@ -438,181 +438,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -743,17 +743,37 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.399975585192419"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -776,17 +796,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -802,26 +822,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.399975585192419"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -857,145 +857,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1586,7 +1586,7 @@
   <dimension ref="A1:P20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5583333333333" defaultRowHeight="14.25"/>
@@ -1899,31 +1899,31 @@
       <c r="J8" s="9"/>
       <c r="K8" s="16"/>
       <c r="L8" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="M8" s="18" t="s">
         <v>48</v>
-      </c>
-      <c r="M8" s="18" t="s">
-        <v>49</v>
       </c>
       <c r="N8" s="9"/>
       <c r="O8" s="9">
         <v>200</v>
       </c>
       <c r="P8" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" ht="71.25" spans="1:16">
       <c r="A9" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="C9" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="D9" s="11" t="s">
         <v>53</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>54</v>
       </c>
       <c r="E9" s="9"/>
       <c r="F9" s="9" t="s">
@@ -1933,7 +1933,7 @@
         <v>21</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1950,31 +1950,31 @@
     </row>
     <row r="10" ht="28.5" spans="1:16">
       <c r="A10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="C10" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="D10" s="9" t="s">
         <v>58</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>59</v>
       </c>
       <c r="E10" s="9" t="s">
         <v>32</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G10" s="9" t="s">
         <v>21</v>
       </c>
       <c r="H10" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="I10" s="9" t="s">
         <v>61</v>
-      </c>
-      <c r="I10" s="9" t="s">
-        <v>62</v>
       </c>
       <c r="J10" s="9"/>
       <c r="K10" s="16"/>
@@ -1982,7 +1982,7 @@
         <v>23</v>
       </c>
       <c r="M10" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N10" s="9"/>
       <c r="O10" s="9">
@@ -1992,39 +1992,39 @@
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="C11" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="D11" s="9" t="s">
         <v>65</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>66</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>32</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G11" s="9" t="s">
         <v>21</v>
       </c>
       <c r="H11" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="I11" s="9" t="s">
         <v>67</v>
-      </c>
-      <c r="I11" s="9" t="s">
-        <v>68</v>
       </c>
       <c r="J11" s="9"/>
       <c r="K11" s="16"/>
       <c r="L11" s="9" t="s">
-        <v>23</v>
+        <v>68</v>
       </c>
       <c r="M11" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N11" s="9"/>
       <c r="O11" s="9">
